--- a/Dashboard de vendas xbox.xlsx
+++ b/Dashboard de vendas xbox.xlsx
@@ -5,17 +5,17 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rysnc\Desktop\projeto xbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rysnc\Desktop\Dashboard xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B3CDBB-68ED-4BE0-B3E6-280BAB94BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAD8C9F-638D-4CE5-AED8-E26EEEE3BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -993,9 +993,6 @@
   </si>
   <si>
     <t>Subscription Price</t>
-  </si>
-  <si>
-    <t>É UMA PERGUNTA DE NE'GOCIO RESPONDIDA ATRAVÉS DE ALGUMA ANALISE DE DADO ESPECÍFICA</t>
   </si>
   <si>
     <r>
@@ -1076,6 +1073,9 @@
   </si>
   <si>
     <t>Contagem de Subscriber ID</t>
+  </si>
+  <si>
+    <t>É UMA PERGUNTA DE NEGOCIO RESPONDIDA ATRAVÉS DE ALGUMA ANALISE DE DADO ESPECÍFICA</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,10 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="156">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1324,39 +1327,382 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1403,11 +1749,43 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{9D164018-D3CC-4F54-BA16-AD2547BE029E}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="155"/>
+      <tableStyleElement type="headerRow" dxfId="154"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1698,7 +2076,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[base.xlsx]C̳álculos!tbl_annuel_total</c:name>
+    <c:name>[Dashboard de vendas xbox.xlsx]C̳álculos!tbl_annuel_total</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -1869,6 +2247,30 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="22C55E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="22C55E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1900,6 +2302,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="22C55E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-95D3-4A01-842D-3D18BE2DB39D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="22C55E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-95D3-4A01-842D-3D18BE2DB39D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3475,8 +3915,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>101820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Subscription Type">
@@ -3499,7 +3939,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3545,13 +3985,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>178635</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>8093</xdr:rowOff>
+      <xdr:rowOff>400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481756</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>16378</xdr:rowOff>
+      <xdr:rowOff>8685</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3566,7 +4006,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2112943" y="1803189"/>
+          <a:off x="2112943" y="1795496"/>
           <a:ext cx="3585582" cy="1378420"/>
           <a:chOff x="2190750" y="1666876"/>
           <a:chExt cx="3209926" cy="1381124"/>
@@ -3799,15 +4239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>120718</xdr:colOff>
+      <xdr:colOff>201314</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36668</xdr:rowOff>
+      <xdr:rowOff>28975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>445881</xdr:colOff>
+      <xdr:colOff>526477</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>178304</xdr:rowOff>
+      <xdr:rowOff>170611</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3822,7 +4262,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5945622" y="1831764"/>
+          <a:off x="6026218" y="1824071"/>
           <a:ext cx="3805451" cy="1321271"/>
           <a:chOff x="6229349" y="1819276"/>
           <a:chExt cx="3695701" cy="1323974"/>
@@ -3956,6 +4396,7 @@
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow"/>
                 </a:rPr>
+                <a:pPr algn="ctr"/>
                 <a:t> R$ 940,00 </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="2800">
@@ -4136,8 +4577,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4155,7 +4596,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2039083" y="3441456"/>
-          <a:ext cx="10631753" cy="2724150"/>
+          <a:ext cx="10936898" cy="2724150"/>
           <a:chOff x="2038350" y="3629025"/>
           <a:chExt cx="8067675" cy="2724150"/>
         </a:xfrm>
@@ -4466,7 +4907,7 @@
               <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> vinda, Gabrila</a:t>
+            <a:t> vinda, Gabriela</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4481,14 +4922,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100505</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60207</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>348155</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>46286</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>75594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4503,8 +4944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2031781" y="1501337"/>
-          <a:ext cx="4760529" cy="345856"/>
+          <a:off x="2034813" y="1408361"/>
+          <a:ext cx="4746380" cy="337771"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4595,22 +5036,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>214206</xdr:colOff>
+      <xdr:colOff>426686</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36668</xdr:rowOff>
+      <xdr:rowOff>28975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>404706</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9051</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>178304</xdr:rowOff>
+      <xdr:rowOff>170611</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Agrupar 34">
+        <xdr:cNvPr id="15" name="Agrupar 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFCC784-0EC9-E685-31C4-C2F1AC98588E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA729D0C-5EA5-B184-7CA2-BA141E099837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4618,254 +5059,260 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10127533" y="1831764"/>
+          <a:off x="10340013" y="1824071"/>
           <a:ext cx="2623038" cy="1321271"/>
-          <a:chOff x="2190750" y="1666876"/>
-          <a:chExt cx="3209926" cy="1323974"/>
+          <a:chOff x="10127533" y="1831764"/>
+          <a:chExt cx="2623038" cy="1321271"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="Retângulo: Cantos Arredondados 38">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Agrupar 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB06FA-26F1-1272-137D-193E721F7B88}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFCC784-0EC9-E685-31C4-C2F1AC98588E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2190750" y="1695450"/>
-            <a:ext cx="3209925" cy="1295400"/>
+            <a:off x="10127533" y="1831764"/>
+            <a:ext cx="2623038" cy="1321271"/>
+            <a:chOff x="2190750" y="1666876"/>
+            <a:chExt cx="3209926" cy="1323974"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 10785"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="C̳álculos!E50">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Retângulo: Cantos Arredondados 39">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="Retângulo: Cantos Arredondados 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB06FA-26F1-1272-137D-193E721F7B88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2190750" y="1695450"/>
+              <a:ext cx="3209925" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 10785"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="C̳álculos!E50">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="Retângulo: Cantos Arredondados 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AE1C9E-C843-69EB-C927-F796E1271FD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3029914" y="2152651"/>
+              <a:ext cx="2299417" cy="676274"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 10785"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{F0DDF5BB-008A-463C-941C-D424E09F22B5}" type="TxLink">
+                <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t> R$ 476,00 </a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:srgbClr val="22C55E"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="Retângulo: Cantos Superiores Arredondados 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54208B44-A40B-71FE-AF4B-E37346835E4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2190750" y="1666876"/>
+              <a:ext cx="3209926" cy="390524"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>TOTAL COUPON VALUE</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="43" name="Imagem 42" descr="Cupom - ícones de comércio grátis">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AE1C9E-C843-69EB-C927-F796E1271FD5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AE6F44-ADA6-56AA-5B3A-3ECB8B449FAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3029914" y="2152651"/>
-            <a:ext cx="2299417" cy="676274"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 10785"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{F0DDF5BB-008A-463C-941C-D424E09F22B5}" type="TxLink">
-              <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="22C55E"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t> R$ 476,00 </a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:srgbClr val="22C55E"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Retângulo: Cantos Superiores Arredondados 40">
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
             <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54208B44-A40B-71FE-AF4B-E37346835E4E}"/>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2190750" y="1666876"/>
-            <a:ext cx="3209926" cy="390524"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="2271138">
+            <a:off x="10333997" y="2388381"/>
+            <a:ext cx="442502" cy="442901"/>
           </a:xfrm>
-          <a:prstGeom prst="round2SameRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="22C55E"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>TOTAL COUPON VALUE</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464631</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>298998</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagem 42" descr="Cupom - ícones de comércio grátis">
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AE6F44-ADA6-56AA-5B3A-3ECB8B449FAB}"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="2271138">
-          <a:off x="10337013" y="2471132"/>
-          <a:ext cx="439485" cy="442901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9674,7 +10121,1638 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F0DF5BD-D62D-4D7F-91C9-A516A237C2A5}" name="Tabela dinâmica4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FAD7F75-8E35-44BC-BEA1-1659D88695F4}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C46:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item sd="0" x="87"/>
+        <item sd="0" x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="16">
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Coupon Value" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="128">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84CF7CFA-58A7-4984-AFC7-7543DFBA5DA8}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C36:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item sd="0" x="87"/>
+        <item sd="0" x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="16">
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="131">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="130">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B098861-9BE3-40F9-AB9A-D8E80782D9CE}" name="tbl_EA_Play" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C25:D29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item sd="0" x="87"/>
+        <item sd="0" x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="16">
+        <item x="11"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="134">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="132">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2042A322-8E01-48A2-94A7-830AA0F9E903}" name="tbl_annuel_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="C11:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item sd="0" x="87"/>
+        <item sd="0" x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="136">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="135">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F0DF5BD-D62D-4D7F-91C9-A516A237C2A5}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C58:D62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10060,13 +12138,13 @@
     <dataField name="Contagem de Subscriber ID" fld="0" subtotal="count" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="139">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="138">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10174,1613 +12252,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FAD7F75-8E35-44BC-BEA1-1659D88695F4}" name="Tabela dinâmica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="C46:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item sd="0" x="87"/>
-        <item sd="0" x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="16">
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Coupon Value" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="3">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84CF7CFA-58A7-4984-AFC7-7543DFBA5DA8}" name="Tabela dinâmica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="C36:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item sd="0" x="87"/>
-        <item sd="0" x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="16">
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="6">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B098861-9BE3-40F9-AB9A-D8E80782D9CE}" name="tbl_EA_Play" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="C25:D29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item sd="0" x="87"/>
-        <item sd="0" x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="16">
-        <item x="11"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="11">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2042A322-8E01-48A2-94A7-830AA0F9E903}" name="tbl_annuel_total" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="C11:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item sd="0" x="87"/>
-        <item sd="0" x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="15">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{D3EB1100-DBEA-41A2-A43E-1D76879ABE0B}" sourceName="Subscription Type">
   <pivotTables>
@@ -11809,22 +12280,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="153">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="20" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="18" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="17" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="147" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="144" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="143"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="142" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="141" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="140" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12153,7 +12624,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24498,8 +24969,8 @@
   </sheetPr>
   <dimension ref="C4:E62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24519,17 +24990,17 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -24542,10 +25013,10 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -24566,7 +25037,7 @@
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="14">
         <v>1754</v>
@@ -24574,7 +25045,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -24587,10 +25058,10 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
@@ -24619,7 +25090,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D29" s="14">
         <v>600</v>
@@ -24632,7 +25103,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
@@ -24645,10 +25116,10 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
@@ -24677,7 +25148,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D40" s="14">
         <v>940</v>
@@ -24697,10 +25168,10 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
@@ -24729,7 +25200,7 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D50" s="14">
         <v>476</v>
@@ -24749,10 +25220,10 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
@@ -24781,7 +25252,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D62" s="18">
         <v>71</v>
@@ -24802,7 +25273,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24815,7 +25286,7 @@
     <row r="1" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -25387,6 +25858,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -25641,27 +26132,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25678,29 +26174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>